--- a/input.xlsx
+++ b/input.xlsx
@@ -5,19 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workdir\tcautomation-Monali\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workdir\automation-22-Aug\tcautomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDBE6EC0-50CF-494F-9819-AD2C64314AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B7A56D-41C6-41A5-96D1-0B53B447264C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="route_tables" sheetId="1" r:id="rId1"/>
     <sheet name="vcns" sheetId="2" r:id="rId2"/>
     <sheet name="drg_attachments" sheetId="3" r:id="rId3"/>
     <sheet name="seclists" sheetId="4" r:id="rId4"/>
-    <sheet name="subnets" sheetId="5" r:id="rId5"/>
+    <sheet name="instances" sheetId="6" r:id="rId5"/>
+    <sheet name="subnets" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="110">
   <si>
     <t>route_table_name</t>
   </si>
@@ -49,15 +50,6 @@
     <t>freeform_tags</t>
   </si>
   <si>
-    <t>test-vcn_rt-test-vcn1</t>
-  </si>
-  <si>
-    <t>owner=Aditya;team=dev1;backup=weekly</t>
-  </si>
-  <si>
-    <t>test-vcn_rt-test-vcn2</t>
-  </si>
-  <si>
     <t>owner=Monali;team=dev1;backup=weekly</t>
   </si>
   <si>
@@ -82,151 +74,292 @@
     <t>defined_tags</t>
   </si>
   <si>
+    <t>cidr_blocks</t>
+  </si>
+  <si>
+    <t>dns_label</t>
+  </si>
+  <si>
+    <t>drg_attachment_name</t>
+  </si>
+  <si>
+    <t>drg_id</t>
+  </si>
+  <si>
+    <t>drg_route_table_id</t>
+  </si>
+  <si>
+    <t>network_details</t>
+  </si>
+  <si>
+    <t>route_table_id</t>
+  </si>
+  <si>
+    <t>seclist_name</t>
+  </si>
+  <si>
+    <t>ingress_sec_rules</t>
+  </si>
+  <si>
+    <t>egress_sec_rules</t>
+  </si>
+  <si>
+    <t>ocid1.drg.oc1.me-jeddah-1.aaaaaaaaiox2fkeldyrjlhuk3pbetsbb3ncm7vfx6dkzcfw3mvympwqrv7cq</t>
+  </si>
+  <si>
+    <t>network_entity_id=ocid1.drg.oc1.me-jeddah-1.aaaaaaaaiox2fkeldyrjlhuk3pbetsbb3ncm7vfx6dkzcfw3mvympwqrv7cq;description=;destination=0.0.0.0/0;destination_type=CIDR_BLOCK,network_entity_id=ocid1.drg.oc1.me-jeddah-1.aaaaaaaaiox2fkeldyrjlhuk3pbetsbb3ncm7vfx6dkzcfw3mvympwqrv7cq;description=;destination=all-jed-services-in-oracle-services-network;destination_type=SERVICE_CIDR_BLOCK</t>
+  </si>
+  <si>
+    <t>availability_domain</t>
+  </si>
+  <si>
+    <t>cidr_block</t>
+  </si>
+  <si>
+    <t>prohibit_public_ip_on_vnic</t>
+  </si>
+  <si>
+    <t>dhcp_options_id</t>
+  </si>
+  <si>
+    <t>security_list_ids</t>
+  </si>
+  <si>
+    <t>subnet_name</t>
+  </si>
+  <si>
+    <t>vcn-spoke-adc-mrm-priv-nprod</t>
+  </si>
+  <si>
+    <t>cmp-adc-mrm-dev</t>
+  </si>
+  <si>
+    <t>cmp-adc-mrm-prod</t>
+  </si>
+  <si>
+    <t>mrmnprod</t>
+  </si>
+  <si>
+    <t>mrmprod</t>
+  </si>
+  <si>
+    <t>drgatt-spoke-mrm-priv-nprod</t>
+  </si>
+  <si>
+    <t>drgatt-spoke-mrm-priv-prod</t>
+  </si>
+  <si>
+    <t>sn-spoke-adc-mrm-priv-dev-app</t>
+  </si>
+  <si>
+    <t>sn-spoke-adc-mrm-priv-dev-db</t>
+  </si>
+  <si>
+    <t>vcn-spoke-adc-mrm-priv-nprod_sn-spoke-adc-mrm-priv-dev-app</t>
+  </si>
+  <si>
+    <t>vcn-spoke-adc-mrm-priv-nprod_sn-spoke-adc-mrm-priv-dev-db</t>
+  </si>
+  <si>
+    <t>sn-spoke-adc-mrm-priv-prod-app</t>
+  </si>
+  <si>
+    <t>sn-spoke-adc-mrm-priv-prod-db</t>
+  </si>
+  <si>
+    <t>vcn-spoke-adc-mrm-priv-prod_sn-spoke-adc-mrm-priv-prod-app</t>
+  </si>
+  <si>
+    <t>vcn-spoke-adc-mrm-priv-prod_sn-spoke-adc-mrm-priv-prod-db</t>
+  </si>
+  <si>
+    <t>vcn-spoke-adc-mrm-priv-nprod_rt-spoke-adc-mrm-priv-dev-app</t>
+  </si>
+  <si>
+    <t>vcn-spoke-adc-mrm-priv-nprod_rt-spoke-adc-mrm-priv-dev-db</t>
+  </si>
+  <si>
+    <t>vcn-spoke-adc-mrm-priv-prod_rt-spoke-adc-mrm-priv-prod-app</t>
+  </si>
+  <si>
+    <t>vcn-spoke-adc-mrm-priv-prod_rt-spoke-adc-mrm-priv-prod-db</t>
+  </si>
+  <si>
+    <t>devapp</t>
+  </si>
+  <si>
+    <t>devdb</t>
+  </si>
+  <si>
+    <t>prodapp</t>
+  </si>
+  <si>
+    <t>proddb</t>
+  </si>
+  <si>
+    <t>rt-spoke-adc-mrm-priv-dev-app</t>
+  </si>
+  <si>
+    <t>rt-spoke-adc-mrm-priv-dev-db</t>
+  </si>
+  <si>
+    <t>rt-spoke-adc-mrm-priv-prod-app</t>
+  </si>
+  <si>
+    <t>rt-spoke-adc-mrm-priv-prod-db</t>
+  </si>
+  <si>
+    <t>cmp-adc-mrm</t>
+  </si>
+  <si>
+    <t>vcn-spoke-adc-mrm-priv-nprod_sl-spoke-adc-mrm-priv-dev-app</t>
+  </si>
+  <si>
+    <t>vcn-spoke-adc-mrm-priv-nprod_sl-spoke-adc-mrm-priv-dev-db</t>
+  </si>
+  <si>
+    <t>vcn-spoke-adc-mrm-priv-prod_sl-spoke-adc-mrm-priv-prod-app</t>
+  </si>
+  <si>
+    <t>vcn-spoke-adc-mrm-priv-prod_sl-spoke-adc-mrm-priv-prod-db</t>
+  </si>
+  <si>
+    <t>sl-spoke-adc-mrm-priv-dev-db</t>
+  </si>
+  <si>
+    <t>sl-spoke-adc-mrm-priv-dev-app</t>
+  </si>
+  <si>
+    <t>sl-spoke-adc-mrm-priv-prod-app</t>
+  </si>
+  <si>
+    <t>sl-spoke-adc-mrm-priv-prod-db</t>
+  </si>
+  <si>
+    <t>"vcn-spoke-adc-mrm-priv-nprod_sl-spoke-adc-mrm-priv-dev-app"</t>
+  </si>
+  <si>
+    <t>"vcn-spoke-adc-mrm-priv-nprod_sl-spoke-adc-mrm-priv-dev-db"</t>
+  </si>
+  <si>
+    <t>"vcn-spoke-adc-mrm-priv-prod_sl-spoke-adc-mrm-priv-prod-app"</t>
+  </si>
+  <si>
+    <t>"vcn-spoke-adc-mrm-priv-prod_sl-spoke-adc-mrm-priv-prod-db"</t>
+  </si>
+  <si>
+    <t>vcn-nprod</t>
+  </si>
+  <si>
+    <t>vcn-prod</t>
+  </si>
+  <si>
+    <t>id=vcn-nprod;type=VCN;vcn_route_table_id=</t>
+  </si>
+  <si>
+    <t>id=vcn-prod;type=VCN;vcn_route_table_id=</t>
+  </si>
+  <si>
+    <t>protocol=6;source=all-jed-services-in-oracle-services-network;source_type=SERVICE_CIDR_BLOCK;options=all::,protocol=all;source=0.0.0.0/0;options=all::</t>
+  </si>
+  <si>
+    <t>protocol=all;destination=all-jed-services-in-oracle-services-network;destination_type=SERVICE_CIDR_BLOCK;description=allnetwork;options=all::,</t>
+  </si>
+  <si>
+    <t>10.241.136.0/21</t>
+  </si>
+  <si>
+    <t>10.231.136.0/21</t>
+  </si>
+  <si>
+    <t>10.241.136.0/25</t>
+  </si>
+  <si>
+    <t>10.241.137.0/25</t>
+  </si>
+  <si>
+    <t>10.231.136.0/25</t>
+  </si>
+  <si>
+    <t>10.231.137.0/25</t>
+  </si>
+  <si>
+    <t>vcn-spoke-adc-mrm-priv-prod</t>
+  </si>
+  <si>
+    <t>protocol=all;source=0.0.0.0/0;options=all::,protocol=6;source=10.241.137.0/25;source_type=CIDR_BLOCK;description=Database;options=tcp::destination_port_range_max&lt;&gt;1521||destination_port_range_min&lt;&gt;1521,protocol=6;source=10.241.137.0/25;source_type=CIDR_BLOCK;description=Database;options=tcp::destination_port_range_max&lt;&gt;80||destination_port_range_min&lt;&gt;80,protocol=6;source=10.241.137.0/25;source_type=CIDR_BLOCK;description=Database;options=tcp::destination_port_range_max&lt;&gt;443||destination_port_range_min&lt;&gt;443</t>
+  </si>
+  <si>
+    <t>protocol=all;source=0.0.0.0/0;options=all::,protocol=6;source=10.231.137.0/25;source_type=CIDR_BLOCK;description=Database;options=tcp::destination_port_range_max&lt;&gt;1521||destination_port_range_min&lt;&gt;1521,protocol=6;source=10.231.137.0/25;source_type=CIDR_BLOCK;description=Database;options=tcp::destination_port_range_max&lt;&gt;80||destination_port_range_min&lt;&gt;80,protocol=6;source=10.231.137.0/25;source_type=CIDR_BLOCK;description=Database;options=tcp::destination_port_range_max&lt;&gt;443||destination_port_range_min&lt;&gt;443</t>
+  </si>
+  <si>
+    <t>shape</t>
+  </si>
+  <si>
+    <t>boot_volume_size_in_gbs</t>
+  </si>
+  <si>
+    <t>fault_domain</t>
+  </si>
+  <si>
+    <t>source_id</t>
+  </si>
+  <si>
+    <t>source_type</t>
+  </si>
+  <si>
+    <t>network_compartment_id</t>
+  </si>
+  <si>
+    <t>vcn_compartment_id</t>
+  </si>
+  <si>
+    <t>subnet_id</t>
+  </si>
+  <si>
+    <t>assign_public_ip</t>
+  </si>
+  <si>
+    <t>private_ip</t>
+  </si>
+  <si>
+    <t>ocpus</t>
+  </si>
+  <si>
+    <t>memory_in_gbs</t>
+  </si>
+  <si>
+    <t>update_is_pv_encryption_in_transit_enabled</t>
+  </si>
+  <si>
+    <t>instance_name</t>
+  </si>
+  <si>
+    <t>test-dev-app-01</t>
+  </si>
+  <si>
+    <t>cmp-adc-devops-test</t>
+  </si>
+  <si>
+    <t>VM.Standard.E4.Flex</t>
+  </si>
+  <si>
+    <t>FAULT-DOMAIN-2</t>
+  </si>
+  <si>
+    <t>Windows-Server-2019-Standard-Edition-VM-2022-11-28-0</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
     <t>test-vcn-1</t>
   </si>
   <si>
-    <t>test-vcn-2</t>
-  </si>
-  <si>
-    <t>cidr_blocks</t>
-  </si>
-  <si>
-    <t>dns_label</t>
-  </si>
-  <si>
-    <t>drg_attachment_name</t>
-  </si>
-  <si>
-    <t>drg_id</t>
-  </si>
-  <si>
-    <t>drg_route_table_id</t>
-  </si>
-  <si>
-    <t>network_details</t>
-  </si>
-  <si>
-    <t>route_table_id</t>
-  </si>
-  <si>
-    <t>drgatt-spoke-testdrg-1</t>
-  </si>
-  <si>
-    <t>drgatt-spoke-testdrg-2</t>
-  </si>
-  <si>
-    <t>seclist_name</t>
-  </si>
-  <si>
-    <t>ingress_sec_rules</t>
-  </si>
-  <si>
-    <t>egress_sec_rules</t>
-  </si>
-  <si>
-    <t>cmp-adc-devops-test</t>
-  </si>
-  <si>
-    <t>10.241.224.0/21</t>
-  </si>
-  <si>
-    <t>10.231.224.0/21</t>
-  </si>
-  <si>
     <t>devops-test-vcn1</t>
   </si>
   <si>
-    <t>devops-test-vcn2</t>
-  </si>
-  <si>
-    <t>id=test-vcn-1;type=VCN;vcn_route_table_id=</t>
-  </si>
-  <si>
-    <t>id=test-vcn-2;type=VCN;vcn_route_table_id=</t>
-  </si>
-  <si>
-    <t>ocid1.drg.oc1.me-jeddah-1.aaaaaaaaiox2fkeldyrjlhuk3pbetsbb3ncm7vfx6dkzcfw3mvympwqrv7cq</t>
-  </si>
-  <si>
-    <t>rt-test-vcn1</t>
-  </si>
-  <si>
-    <t>rt-test-vcn2</t>
-  </si>
-  <si>
-    <t>network_entity_id=ocid1.drg.oc1.me-jeddah-1.aaaaaaaaiox2fkeldyrjlhuk3pbetsbb3ncm7vfx6dkzcfw3mvympwqrv7cq;description=;destination=0.0.0.0/0;destination_type=CIDR_BLOCK,network_entity_id=ocid1.drg.oc1.me-jeddah-1.aaaaaaaaiox2fkeldyrjlhuk3pbetsbb3ncm7vfx6dkzcfw3mvympwqrv7cq;description=;destination=all-jed-services-in-oracle-services-network;destination_type=SERVICE_CIDR_BLOCK</t>
-  </si>
-  <si>
-    <t>vcn-devops-prod</t>
-  </si>
-  <si>
-    <t>vcn-devops-nprod</t>
-  </si>
-  <si>
-    <t>sl-devops-nprod</t>
-  </si>
-  <si>
-    <t>sl-devops-prod</t>
-  </si>
-  <si>
-    <t>protocol=6;destination=all-jed-services-in-oracle-services-network;destination_type=SERVICE_CIDR_BLOCK;description=test description;options=tcp::,protocol=6;destination=all-jed-services-in-oracle-services-network;destination_type=SERVICE_CIDR_BLOCK;description=NAT;options=tcp::destination_port_range_max&lt;&gt;80||destination_port_range_min&lt;&gt;80</t>
-  </si>
-  <si>
-    <t>protocol=6;source=all-jed-services-in-oracle-services-network;source_type=SERVICE_CIDR_BLOCK;options=all::,protocol=6;source=all-jed-services-in-oracle-services-network;source_type=SERVICE_CIDR_BLOCK;description=testdescription;options=all::destination_port_range_max&lt;&gt;22||destination_port_range_min&lt;&gt;22,protocol=all;source=0.0.0.0/0;options=all::</t>
-  </si>
-  <si>
     <t>sn-spoke-adc-devops-testsubnet1</t>
-  </si>
-  <si>
-    <t>availability_domain</t>
-  </si>
-  <si>
-    <t>cidr_block</t>
-  </si>
-  <si>
-    <t>prohibit_public_ip_on_vnic</t>
-  </si>
-  <si>
-    <t>dhcp_options_id</t>
-  </si>
-  <si>
-    <t>security_list_ids</t>
-  </si>
-  <si>
-    <t>10.241.228.0/24</t>
-  </si>
-  <si>
-    <t>10.231.231.0/26</t>
-  </si>
-  <si>
-    <t>sn-spoke-adc-devops-testsubnet4</t>
-  </si>
-  <si>
-    <t>devops-testsubnet1</t>
-  </si>
-  <si>
-    <t>devops-testsubnet2</t>
-  </si>
-  <si>
-    <t>dev1</t>
-  </si>
-  <si>
-    <t>dev2</t>
-  </si>
-  <si>
-    <t>subnet_name</t>
-  </si>
-  <si>
-    <t>"vcn-devops-prod"</t>
-  </si>
-  <si>
-    <t>"vcn-devops-nprod"</t>
-  </si>
-  <si>
-    <t>devtestprd</t>
-  </si>
-  <si>
-    <t>devtestnprd</t>
   </si>
 </sst>
 </file>
@@ -544,19 +677,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="174.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.6328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="37.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="17.90625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.6328125" bestFit="1" customWidth="1"/>
@@ -583,62 +716,102 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>13</v>
-      </c>
-      <c r="J1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -652,67 +825,67 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.08984375" customWidth="1"/>
+    <col min="1" max="1" width="27.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.36328125" customWidth="1"/>
     <col min="3" max="3" width="15.1796875" customWidth="1"/>
-    <col min="4" max="4" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
         <v>32</v>
       </c>
-      <c r="D2" t="s">
-        <v>34</v>
-      </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -725,41 +898,41 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.7265625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="35.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -767,36 +940,36 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="H2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
         <v>38</v>
       </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="H3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -807,27 +980,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE2156FC-5F33-459A-A296-E85C398AB925}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="244.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="217.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.08984375" customWidth="1"/>
+    <col min="4" max="4" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="130.36328125" customWidth="1"/>
+    <col min="6" max="6" width="126.08984375" customWidth="1"/>
     <col min="7" max="7" width="35.6328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -839,62 +1012,108 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -904,37 +1123,189 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D5440A0-9DF8-42BD-B488-F88824FC4A94}">
-  <dimension ref="A1:M3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20BE9BD6-6348-4F8B-909B-A59614BC9E0C}">
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="49.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="39.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="36.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>94</v>
+      </c>
+      <c r="N1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O1" t="s">
+        <v>96</v>
+      </c>
+      <c r="P1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>98</v>
+      </c>
+      <c r="R1" t="s">
+        <v>99</v>
+      </c>
+      <c r="S1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K2" t="s">
+        <v>107</v>
+      </c>
+      <c r="L2" t="s">
+        <v>108</v>
+      </c>
+      <c r="M2" t="s">
+        <v>109</v>
+      </c>
+      <c r="N2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>8</v>
+      </c>
+      <c r="Q2">
+        <v>32</v>
+      </c>
+      <c r="R2" t="b">
+        <v>1</v>
+      </c>
+      <c r="S2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D5440A0-9DF8-42BD-B488-F88824FC4A94}">
+  <dimension ref="A1:M5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="55.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" customWidth="1"/>
     <col min="3" max="3" width="16.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.08984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="55.26953125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="56.81640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -946,22 +1317,22 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="H1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="K1" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="L1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M1" t="s">
         <v>5</v>
@@ -969,66 +1340,130 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M2" t="s">
         <v>6</v>
-      </c>
-      <c r="I2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K3" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="M3" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
